--- a/archivos/ruta_reloj.xlsx
+++ b/archivos/ruta_reloj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonn\Desktop\Coodetrans\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F38C84-D2C3-44C4-A5FD-DC39384D347E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CF4F9-C6C8-4FFE-8F6B-9379F028E1B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3B9C46A6-FFC1-4242-86A0-EECB92945E42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Hora despacho</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Palmira - Candelaria - Cali</t>
   </si>
   <si>
-    <t>cali candelario palmira</t>
-  </si>
-  <si>
     <t>LLANOGRANDE</t>
   </si>
   <si>
@@ -157,6 +154,15 @@
   </si>
   <si>
     <t>peaje cerrito</t>
+  </si>
+  <si>
+    <t>despues de las 5</t>
+  </si>
+  <si>
+    <t>DESPUES DE LAS 4:23</t>
+  </si>
+  <si>
+    <t>cali candelaria palmira</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0986D3-8BA0-40CA-A8E6-B5E28EF83E7C}">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +809,20 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5">
+        <v>111</v>
+      </c>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>20</v>
@@ -954,12 +974,12 @@
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -970,7 +990,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="O22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -987,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>27</v>
@@ -1005,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1033,7 +1053,7 @@
       <c r="M24" s="8">
         <v>59</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="16">
         <v>37</v>
       </c>
     </row>
@@ -1048,7 +1068,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="O25" s="16"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -1060,7 +1080,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="J29" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -1082,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>33</v>
@@ -1119,6 +1139,20 @@
       </c>
       <c r="L31" s="3">
         <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="5">
+        <v>56</v>
+      </c>
+      <c r="K32" s="5">
+        <v>66</v>
+      </c>
+      <c r="L32" s="5">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1128,24 +1162,24 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="I8:N8"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
